--- a/VT_REG1_ELC_V09.xlsx
+++ b/VT_REG1_ELC_V09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Desktop\DEMO_009\Demo_009_TIMES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12C79123-C64C-4C56-A2DC-F152F1AF8576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893385A6-3FE9-4F1B-8EFA-0762BB2C1AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" tabRatio="901" activeTab="3"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -26,12 +26,15 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +42,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P15" authorId="2" shapeId="0">
+    <comment ref="P15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="1" shapeId="0">
+    <comment ref="Q15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -463,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="2" shapeId="0">
+    <comment ref="R15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -526,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -774,14 +777,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -895,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="1" shapeId="0">
+    <comment ref="Y3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -921,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z3" authorId="2" shapeId="0">
+    <comment ref="Z3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -994,7 +997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="2" shapeId="0">
+    <comment ref="AA3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="2" shapeId="0">
+    <comment ref="AB3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z9" authorId="2" shapeId="0">
+    <comment ref="Z9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1173,7 +1176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA9" authorId="1" shapeId="0">
+    <comment ref="AA9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1198,7 +1201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB9" authorId="2" shapeId="0">
+    <comment ref="AB9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T10" authorId="2" shapeId="0">
+    <comment ref="T10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2018,16 +2021,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="188" formatCode="0.0"/>
-    <numFmt numFmtId="190" formatCode="0.0000"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2035,6 +2038,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2057,32 +2061,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2129,6 +2107,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2578,34 +2557,34 @@
   </borders>
   <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="122">
@@ -2627,18 +2606,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2647,11 +2626,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9"/>
@@ -2665,69 +2644,69 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="22" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="22" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="20" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="16" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2736,23 +2715,23 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="16" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
@@ -2761,88 +2740,88 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2851,32 +2830,32 @@
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 4 2" xfId="12"/>
-    <cellStyle name="Normal 8" xfId="13"/>
-    <cellStyle name="Normal 9 2" xfId="14"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="17"/>
-    <cellStyle name="Percent 3" xfId="18"/>
-    <cellStyle name="Percent 3 2" xfId="19"/>
-    <cellStyle name="Percent 3 3" xfId="20"/>
-    <cellStyle name="Percent 3 4" xfId="21"/>
-    <cellStyle name="Percent 4" xfId="22"/>
-    <cellStyle name="Percent 4 2" xfId="23"/>
-    <cellStyle name="Percent 4 3" xfId="24"/>
-    <cellStyle name="Percent 4 4" xfId="25"/>
-    <cellStyle name="Percent 5" xfId="26"/>
-    <cellStyle name="Percent 6" xfId="27"/>
-    <cellStyle name="Percent 7" xfId="28"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="29"/>
+    <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 3 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 4 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 4 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 7" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4335,7 +4314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4345,24 +4324,24 @@
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="10.88671875" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X1" s="23" t="s">
         <v>78</v>
       </c>
@@ -4376,7 +4355,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="7"/>
       <c r="D2" s="48" t="s">
         <v>42</v>
@@ -4446,7 +4425,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C3" s="67" t="s">
         <v>122</v>
       </c>
@@ -4508,7 +4487,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
       <c r="C4" s="83" t="s">
         <v>55</v>
@@ -4534,7 +4513,7 @@
       <c r="V4" s="84"/>
       <c r="X4" s="6"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="50" t="s">
         <v>56</v>
       </c>
@@ -4619,7 +4598,7 @@
       </c>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="50" t="s">
         <v>48</v>
       </c>
@@ -4704,7 +4683,7 @@
       </c>
       <c r="X6" s="95"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="50" t="s">
         <v>59</v>
       </c>
@@ -4789,7 +4768,7 @@
       </c>
       <c r="X7" s="6"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="50" t="s">
         <v>61</v>
       </c>
@@ -4873,7 +4852,7 @@
         <v>-200.86150000000021</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="46"/>
       <c r="C9" s="55" t="s">
         <v>63</v>
@@ -4955,7 +4934,7 @@
         <v>-9781.6922875000037</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="D10" s="10"/>
       <c r="F10" s="10"/>
@@ -4967,7 +4946,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -4984,7 +4963,7 @@
       <c r="Q11" s="96"/>
       <c r="R11" s="96"/>
     </row>
-    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="C12" s="53" t="s">
         <v>143</v>
@@ -5000,15 +4979,15 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="C15" s="64" t="s">
         <v>90</v>
@@ -5021,7 +5000,7 @@
       </c>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="23" t="s">
         <v>99</v>
@@ -5037,7 +5016,7 @@
       </c>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="50" t="s">
         <v>48</v>
       </c>
@@ -5054,33 +5033,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="6.85546875" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="4" width="6.88671875" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E1" s="11"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="78" t="s">
         <v>147</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="4" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E4" s="119" t="s">
         <v>150</v>
       </c>
@@ -5093,7 +5072,7 @@
       <c r="L4" s="120"/>
       <c r="M4" s="121"/>
     </row>
-    <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="79" t="s">
         <v>148</v>
       </c>
@@ -5117,36 +5096,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
         <v>65</v>
       </c>
@@ -5167,7 +5146,7 @@
       </c>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="2:18" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="str">
         <f>'EB1'!B6</f>
         <v>ELC</v>
@@ -5203,7 +5182,7 @@
       <c r="Q2" s="107"/>
       <c r="R2" s="107"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J3" s="108" t="s">
         <v>7</v>
       </c>
@@ -5232,7 +5211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" s="6" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -5266,7 +5245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -5295,7 +5274,7 @@
       <c r="Q5" s="111"/>
       <c r="R5" s="111"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -5322,7 +5301,7 @@
       <c r="Q6" s="111"/>
       <c r="R6" s="111"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5349,7 +5328,7 @@
       <c r="Q7" s="111"/>
       <c r="R7" s="111"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -5376,7 +5355,7 @@
       <c r="Q8" s="111"/>
       <c r="R8" s="111"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -5403,7 +5382,7 @@
       <c r="Q9" s="111"/>
       <c r="R9" s="111"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5430,7 +5409,7 @@
       <c r="Q10" s="111"/>
       <c r="R10" s="111"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -5457,7 +5436,7 @@
       <c r="Q11" s="111"/>
       <c r="R11" s="111"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -5484,11 +5463,11 @@
       <c r="Q12" s="111"/>
       <c r="R12" s="111"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L13" s="27"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
@@ -5506,7 +5485,7 @@
       <c r="Q14" s="113"/>
       <c r="R14" s="113"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>1</v>
       </c>
@@ -5556,7 +5535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
         <v>37</v>
       </c>
@@ -5606,7 +5585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>76</v>
       </c>
@@ -5633,7 +5612,7 @@
       <c r="Q17" s="114"/>
       <c r="R17" s="114"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="str">
         <f>Sector_Fuels_ELC!L18</f>
         <v>FTE-ELCCOA</v>
@@ -5678,7 +5657,7 @@
       <c r="Q18" s="111"/>
       <c r="R18" s="111"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="25" t="str">
         <f>Sector_Fuels_ELC!L19</f>
         <v>FTE-ELCGAS</v>
@@ -5721,7 +5700,7 @@
       <c r="Q19" s="111"/>
       <c r="R19" s="111"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="25" t="str">
         <f>Sector_Fuels_ELC!L20</f>
         <v>FTE-ELCOIL</v>
@@ -5767,7 +5746,7 @@
       <c r="Q20" s="111"/>
       <c r="R20" s="111"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="25"/>
       <c r="C21" t="str">
         <f>'EB1'!I$2</f>
@@ -5803,7 +5782,7 @@
       <c r="Q21" s="117"/>
       <c r="R21" s="111"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="25"/>
       <c r="C22" t="str">
         <f>'EB1'!L$2</f>
@@ -5839,7 +5818,7 @@
       <c r="Q22" s="111"/>
       <c r="R22" s="111"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="25"/>
       <c r="C23" t="str">
         <f>'EB1'!M$2</f>
@@ -5875,7 +5854,7 @@
       <c r="Q23" s="113"/>
       <c r="R23" s="113"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="28" t="str">
         <f>Sector_Fuels_ELC!L21</f>
         <v>FTE-ELCNUC</v>
@@ -5918,7 +5897,7 @@
       <c r="Q24" s="113"/>
       <c r="R24" s="113"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="28" t="str">
         <f>Sector_Fuels_ELC!L22</f>
         <v>FTE-ELCBIO</v>
@@ -5961,7 +5940,7 @@
       <c r="Q25" s="113"/>
       <c r="R25" s="113"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="str">
         <f>Sector_Fuels_ELC!L23</f>
         <v>FTE-ELCHYD</v>
@@ -5983,7 +5962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="str">
         <f>Sector_Fuels_ELC!L24</f>
         <v>FTE-ELCWIN</v>
@@ -6005,7 +5984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="28" t="str">
         <f>Sector_Fuels_ELC!L25</f>
         <v>FTE-ELCSOL</v>
@@ -6027,13 +6006,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="52"/>
       <c r="C32" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="68"/>
       <c r="C33" s="1" t="s">
         <v>146</v>
@@ -6048,44 +6027,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AB65536"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" style="25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="25"/>
+    <col min="28" max="28" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="24" t="s">
         <v>65</v>
       </c>
@@ -6108,7 +6087,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="str">
         <f>'EB1'!B6</f>
         <v>ELC</v>
@@ -6146,7 +6125,7 @@
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="T3" s="108" t="s">
         <v>7</v>
       </c>
@@ -6175,7 +6154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:28" s="26" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:28" s="26" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="33" t="s">
         <v>108</v>
       </c>
@@ -6222,7 +6201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:28" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="32" t="s">
         <v>114</v>
       </c>
@@ -6266,7 +6245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="T6" s="113" t="s">
         <v>89</v>
       </c>
@@ -6288,11 +6267,11 @@
       <c r="AA6" s="113"/>
       <c r="AB6" s="113"/>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
@@ -6317,7 +6296,7 @@
       <c r="AA8" s="107"/>
       <c r="AB8" s="107"/>
     </row>
-    <row r="9" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
@@ -6396,7 +6375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -6475,7 +6454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>76</v>
       </c>
@@ -6536,7 +6515,7 @@
       <c r="AA11" s="110"/>
       <c r="AB11" s="110"/>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="str">
         <f t="shared" ref="B12:B19" si="0">V12</f>
         <v>ELCTECOA00</v>
@@ -6608,7 +6587,7 @@
       <c r="AA12" s="111"/>
       <c r="AB12" s="111"/>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>ELCTEGAS00</v>
@@ -6676,7 +6655,7 @@
       <c r="AA13" s="111"/>
       <c r="AB13" s="111"/>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>ELCTEOIL00</v>
@@ -6744,7 +6723,7 @@
       <c r="AA14" s="111"/>
       <c r="AB14" s="111"/>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="str">
         <f t="shared" si="0"/>
         <v>ELCNENUC00</v>
@@ -6817,7 +6796,7 @@
       <c r="AA15" s="111"/>
       <c r="AB15" s="111"/>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="str">
         <f t="shared" si="0"/>
         <v>ELCREBIO00</v>
@@ -6887,7 +6866,7 @@
       <c r="AA16" s="111"/>
       <c r="AB16" s="111"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="str">
         <f t="shared" si="0"/>
         <v>ELCREHYD00</v>
@@ -6958,7 +6937,7 @@
       <c r="AA17" s="111"/>
       <c r="AB17" s="111"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="str">
         <f t="shared" si="0"/>
         <v>ELCREWIN00</v>
@@ -7028,7 +7007,7 @@
       <c r="AA18" s="111"/>
       <c r="AB18" s="111"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="str">
         <f t="shared" si="0"/>
         <v>ELCRESOL00</v>
@@ -7096,30 +7075,30 @@
       <c r="AA19" s="111"/>
       <c r="AB19" s="111"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="R21" s="97"/>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="R22" s="97"/>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="52"/>
       <c r="C23" s="1" t="s">
         <v>145</v>
       </c>
       <c r="R23" s="97"/>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="68"/>
       <c r="C24" s="1" t="s">
         <v>146</v>
       </c>
       <c r="R24" s="97"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="R25" s="97"/>
     </row>
-    <row r="65536" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="65536" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S65536" s="37"/>
     </row>
   </sheetData>
@@ -7131,19 +7110,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="42" t="s">
         <v>151</v>
       </c>
@@ -7156,7 +7135,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="4" spans="2:10" s="6" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -7164,7 +7143,7 @@
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
     </row>
-    <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>139</v>
       </c>
@@ -7172,7 +7151,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="45" t="s">
         <v>0</v>
       </c>
@@ -7192,7 +7171,7 @@
       <c r="G6" s="44"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>76</v>
       </c>
@@ -7209,7 +7188,7 @@
       <c r="G7" s="88"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="str">
         <f>Con_ELC!$V$6</f>
         <v>ELCCO2</v>
@@ -7227,21 +7206,21 @@
       <c r="G8" s="89"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="52"/>
       <c r="C23" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="68"/>
       <c r="C24" s="1" t="s">
         <v>146</v>
